--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_31802F1733C7A0836B02CE998F682C9D7A7B838F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA3B558-0AB2-4489-B087-C1006DE13870}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_31802F1733C7A0836B02CE998F682C9D7A7B838F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C138310-DF6F-4020-A3D2-419E4DF7C82F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>abc011</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -753,6 +756,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
